--- a/Project_165/TestData/InputData.xlsx
+++ b/Project_165/TestData/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="7950" windowHeight="3495" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
   <si>
     <t>ApplicationURl</t>
   </si>
@@ -519,6 +520,54 @@
   </si>
   <si>
     <t>9030248855</t>
+  </si>
+  <si>
+    <t>NEwuser1</t>
+  </si>
+  <si>
+    <t>NewPwd1</t>
+  </si>
+  <si>
+    <t>NEwuser2</t>
+  </si>
+  <si>
+    <t>NEwuser3</t>
+  </si>
+  <si>
+    <t>NEwuser4</t>
+  </si>
+  <si>
+    <t>NEwuser5</t>
+  </si>
+  <si>
+    <t>NEwuser6</t>
+  </si>
+  <si>
+    <t>NewPwd2</t>
+  </si>
+  <si>
+    <t>NewPwd3</t>
+  </si>
+  <si>
+    <t>NewPwd4</t>
+  </si>
+  <si>
+    <t>NewPwd5</t>
+  </si>
+  <si>
+    <t>NewPwd6</t>
+  </si>
+  <si>
+    <t>NEwuser7</t>
+  </si>
+  <si>
+    <t>NEwuser8</t>
+  </si>
+  <si>
+    <t>NewPwd7</t>
+  </si>
+  <si>
+    <t>NewPwd8</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1961,4 +2010,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>